--- a/gift.xlsx
+++ b/gift.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanjudoh/Desktop/giftmas/giftmas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4E5ED01-7DD4-574E-A0BF-68427CDD2378}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E104C18-F1D6-A443-896B-DB6A101632C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" xr2:uid="{1B6C2CE9-DAB6-8D44-B310-53CCE27795D2}"/>
   </bookViews>
@@ -48,80 +48,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/static/image/gift/0.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/static/image/gift/1.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/static/image/gift/2.jpg</t>
-  </si>
-  <si>
-    <t>/static/image/gift/3.jpg</t>
-  </si>
-  <si>
-    <t>/static/image/gift/4.jpg</t>
-  </si>
-  <si>
-    <t>/static/image/gift/5.jpg</t>
-  </si>
-  <si>
-    <t>/static/image/gift/6.jpg</t>
-  </si>
-  <si>
-    <t>/static/image/gift/7.jpg</t>
-  </si>
-  <si>
-    <t>/static/image/gift/8.jpg</t>
-  </si>
-  <si>
-    <t>/static/image/gift/9.jpg</t>
-  </si>
-  <si>
-    <t>/static/image/gift/10.jpg</t>
-  </si>
-  <si>
-    <t>/static/image/gift/11.jpg</t>
-  </si>
-  <si>
-    <t>선물 랜덤으로 보내기!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부작용 없는 코로나 백신 주사 (가족형)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시베리아 횡단열차 [패키지 7박 8일]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대형 선물 주머니 XXXL (6m)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>호빵 귀마개 (단팥, 야채, 피자 택1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>닭가슴살 정기구독 1년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>화이트 크리스마스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>람보르기니 우라칸 에보 2020년형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>크리스마스 레터링 케이크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>신축년 소 골드바 3.75g</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,6 +65,82 @@
   </si>
   <si>
     <t>iPhone 12 Pro Max (색상선택가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img1.daumcdn.net/thumb/R1280x0/?scode=mtistory2&amp;fname=https%3A%2F%2Fblog.kakaocdn.net%2Fdn%2FbVjbJk%2FbtqPRATdzoi%2FEOaa2ZwsRg8CvsGvdhXAEk%2Fimg.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img1.daumcdn.net/thumb/R1280x0/?scode=mtistory2&amp;fname=https%3A%2F%2Fblog.kakaocdn.net%2Fdn%2FbtEz0v%2FbtqPRAlpq9x%2FmbBPIzyw8q49zJXsD6vFL0%2Fimg.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img1.daumcdn.net/thumb/R1280x0/?scode=mtistory2&amp;fname=https%3A%2F%2Fblog.kakaocdn.net%2Fdn%2FWJeHV%2FbtqP6obTyHb%2FYQFqwKt7v7VpbrDqfXa9F0%2Fimg.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img1.daumcdn.net/thumb/R1280x0/?scode=mtistory2&amp;fname=https%3A%2F%2Fblog.kakaocdn.net%2Fdn%2FvwUX2%2FbtqP0tyg4X5%2FKydLakn0sgvoeM8cJwFqe0%2Fimg.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img1.daumcdn.net/thumb/R1280x0/?scode=mtistory2&amp;fname=https%3A%2F%2Fblog.kakaocdn.net%2Fdn%2Feo92ed%2FbtqPYkB6dyl%2FB5PMgO0Vwv4uwL7ZbzfPO1%2Fimg.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img1.daumcdn.net/thumb/R1280x0/?scode=mtistory2&amp;fname=https%3A%2F%2Fblog.kakaocdn.net%2Fdn%2FcJOH5M%2FbtqPZJBqm5P%2FnbHdbFeJThMsNA0t1ikQkk%2Fimg.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img1.daumcdn.net/thumb/R1280x0/?scode=mtistory2&amp;fname=https%3A%2F%2Fblog.kakaocdn.net%2Fdn%2FrtFYV%2FbtqPRBSdnYa%2Fhjhv1LiPwC9PTHzLVKsgWk%2Fimg.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img1.daumcdn.net/thumb/R1280x0/?scode=mtistory2&amp;fname=https%3A%2F%2Fblog.kakaocdn.net%2Fdn%2FbBPDoU%2FbtqP4myDkxK%2FnicfTVUWAZ61nAYhMokeBk%2Fimg.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img1.daumcdn.net/thumb/R1280x0/?scode=mtistory2&amp;fname=https%3A%2F%2Fblog.kakaocdn.net%2Fdn%2FseZ9G%2FbtqP4l7x6RE%2F4yXncaOFbo01ckjYYprFA0%2Fimg.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img1.daumcdn.net/thumb/R1280x0/?scode=mtistory2&amp;fname=https%3A%2F%2Fblog.kakaocdn.net%2Fdn%2Fs8xA2%2FbtqP10o5tVa%2F3yaWBqf0lvOrO80NqWDZW0%2Fimg.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img1.daumcdn.net/thumb/R1280x0/?scode=mtistory2&amp;fname=https%3A%2F%2Fblog.kakaocdn.net%2Fdn%2Fc2UGvR%2FbtqPYTK03Bh%2FNTZgPcRo2wsvFxN078pXFk%2Fimg.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img1.daumcdn.net/thumb/R1280x0/?scode=mtistory2&amp;fname=https%3A%2F%2Fblog.kakaocdn.net%2Fdn%2Fdf990p%2FbtqP12tEkeN%2FRaTmkU7StLwnVylWxRnq60%2Fimg.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루피 생일파티 초대장 (필참)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021 행운 MAX 네잎클로버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애완용 루돌프 (성별: 왕자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애완용 유니콘 (성별: 공주)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타임머신 (과거, 미래 택1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달나라 여행 [패키지 3박4일]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진시황이 그토록 찾던 불로초</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -138,7 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -149,6 +159,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -172,18 +191,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -498,7 +524,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -524,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -535,10 +561,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -546,10 +572,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -557,10 +583,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -568,10 +594,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -579,10 +605,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -590,10 +616,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -601,10 +627,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -612,10 +638,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -623,10 +649,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -634,10 +660,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -645,14 +671,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{6BCB3535-4E1E-1E4E-9A88-D5C0FA8BACFA}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{B6F1E9CC-2CC1-C145-AA51-D9DE5759EB0F}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{71D513C0-C71E-8143-95E9-B8F7B1E13281}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{C04FC01F-A370-CF47-85A3-DD236FB07141}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{A1E90235-CFDF-ED41-BBB7-DE33679213C2}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{A45C70F7-7630-B24A-8589-9BA34088BE9C}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{01844FCA-5777-734C-852B-64642AB6B3FA}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{4DDE87CD-597B-7940-99F9-0A41F7CC74E6}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{A00FBED4-6F1B-764E-9B73-16AFDA3D375E}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{573EA623-21D0-9241-99CF-F88ABDDDE0BA}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{A02855EF-F1A1-124B-BE3C-F60EC1BEC9D5}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{2BA92C51-FD39-B641-A502-323A8C6B97D8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/gift.xlsx
+++ b/gift.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanjudoh/Desktop/giftmas/giftmas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E104C18-F1D6-A443-896B-DB6A101632C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA915768-FAB8-3B4F-AB2F-0F646F080942}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" xr2:uid="{1B6C2CE9-DAB6-8D44-B310-53CCE27795D2}"/>
   </bookViews>
@@ -116,10 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>루피 생일파티 초대장 (필참)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2021 행운 MAX 네잎클로버</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,6 +137,10 @@
   </si>
   <si>
     <t>진시황이 그토록 찾던 불로초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루피네 크리스마스파티 초대장 (필참)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,7 +524,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -561,7 +561,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -572,7 +572,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -627,7 +627,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
@@ -649,7 +649,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>17</v>
@@ -660,7 +660,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>18</v>
@@ -671,7 +671,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>19</v>
